--- a/distrib/cutover/Propel v2.2 Cutover.xlsx
+++ b/distrib/cutover/Propel v2.2 Cutover.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\distrib\cutover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B22CA4-EF48-4457-9A40-8FEBF8A77F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC19C84-EFE0-4763-A1F4-C5B44E021D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="703" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00 - Notes" sheetId="5" r:id="rId1"/>
     <sheet name="01 - Update STG data" sheetId="4" r:id="rId2"/>
     <sheet name="02 - Staging migration" sheetId="7" r:id="rId3"/>
+    <sheet name="03 - Production migration" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Step#</t>
   </si>
@@ -433,6 +433,65 @@
   <si>
     <t>Copy the latest build to the destination server and deploy the new Propel version.
 After install perform a quick smoke test and if you have issues check first the section MIGRATION KNOWN ISSUES of the Cutover Procedures document.</t>
+  </si>
+  <si>
+    <t>Create the new version Propel DB as indicated in HOW TO CREATE PROPEL DATABASE of the Cutover Procedures document.
+NOTE: Be sure to use the new version of Propel scripts for this task.</t>
+  </si>
+  <si>
+    <t>Proceed with the following steps:
+ - Create the Admin user “DBA” by executing the script “distrib\cutover\create-admin-user.js” with mongosh. To do this open a powershell console in the folder with the script and run:
+      mongosh create-admin-user.js
+You will be requested for the “DBA” admin user password during the run.
+ - Stop Mongo DB service. 
+ - Edit "mongod.cfg" and ensure to have the following settings
+security:
+  	  authorization: enabled
+ - Start Mongo DB service.</t>
+  </si>
+  <si>
+    <t>Production DB backup</t>
+  </si>
+  <si>
+    <t>Save current Credential Data</t>
+  </si>
+  <si>
+    <t>Check the "Prepare for Credentials data loss" step in Sheet "00 - Notes". Based on that as a first action grab and keep safe the sensitive data for all credentials in Prod env. They will be lost after Propel v2.2 is installed.</t>
+  </si>
+  <si>
+    <t>Check the installed version of node .js by executing in a PowerShell console the following command:
+     node --version
+If current installed version is less than v20.11.1 LTS then open the Add &amp; Remove app and uninstal Node.JS.
+When uninstall is done, download and install Node.js v20.11.1 LTS.</t>
+  </si>
+  <si>
+    <t>Import the production data into the Staging Database as detailed in HOW TO IMPORT COLLECTIONS TO A PROPEL DATABASE of the Cutover Procedures document.
+NOTE: Be sure to use the import script for the upgraded Mongo DB version.</t>
+  </si>
+  <si>
+    <t>Copy the latest build to the destination server and deploy the new Propel version.
+After install perform a quick smoke test and recall to restablish the lost data for Credentials as detailed in the first step of this guide.</t>
+  </si>
+  <si>
+    <t>Migration of PRODUCTION env from Propel v2.1.0 to v2.2.0</t>
+  </si>
+  <si>
+    <t>Proceed with the following steps:
+ - Install Mongo v7.0.7 DB engine (mongodb-windows-x86_64-7.0.7-signed.msi), as service.
+ - Install Mongo DB tools (mongodb-database-tools-windows-x86_64-100.8.0.zip).
+ - Change Path to include current Mongo v7 engine: (using “distrib\cutover\modify-mongo-path.ps1”)
+ - Install Mongosh 2.2.0 (mongosh-2.2.0-win32-x64.zip). To do this unzip the folder and copy the unzipped "\bin" folder into "C:\Program Files\MongoDB\Server\7.0\bin"
+ - Test the path changes by opening a PowerShell console and executing:
+       mongosh –version
+It must return the value “2.2.0”.  Then execute the following:
+       mongod --version
+It must return "db version v7.0.7"</t>
+  </si>
+  <si>
+    <t>Restore Credential data</t>
+  </si>
+  <si>
+    <t>Set again the sensitive data for all teh credentials saved in step "Save current Credential Data".</t>
   </si>
 </sst>
 </file>
@@ -676,7 +735,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -962,9 +1065,286 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA6A6A6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FFEAEAEA"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFEAEAEA"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF828282"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB0B0B0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFA6A6A6"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1001,6 +1381,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFEAEAEA"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1525,44 +1912,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2D9BF87-2C10-4F30-ABEE-9F5D7B7CFC58}" name="Table134" displayName="Table134" ref="A2:C4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2D9BF87-2C10-4F30-ABEE-9F5D7B7CFC58}" name="Table134" displayName="Table134" ref="A2:C4" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A2:C4" xr:uid="{1B2489D6-798F-4D2A-9A16-B1B12477AEC3}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{02EEE380-FD26-43A5-A7F9-4790A6571F11}" name="Short description" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{3FD4F46B-87BC-44F7-9E1C-5A14BE51AC15}" name="Detailed description" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{473F5AF1-60B9-48D0-8088-00B341420963}" name="Status" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{02EEE380-FD26-43A5-A7F9-4790A6571F11}" name="Short description" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{3FD4F46B-87BC-44F7-9E1C-5A14BE51AC15}" name="Detailed description" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{473F5AF1-60B9-48D0-8088-00B341420963}" name="Status" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6F532DD-2A38-48B4-B2FE-24A9EED1D49D}" name="Table13" displayName="Table13" ref="A3:E10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6F532DD-2A38-48B4-B2FE-24A9EED1D49D}" name="Table13" displayName="Table13" ref="A3:E10" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A3:E10" xr:uid="{1B2489D6-798F-4D2A-9A16-B1B12477AEC3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5A9A3E64-1608-400C-8161-8CE483086B52}" name="Step#" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{5A9A3E64-1608-400C-8161-8CE483086B52}" name="Step#" dataDxfId="34">
       <calculatedColumnFormula>IF(ISNUMBER(A3), A3 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F404EC94-DEBB-4D9B-BE02-1C61B82DDDA1}" name="Short description" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D8A5581A-7867-44C0-914B-5E8C01A6CC33}" name="Detailed description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{F7B9393A-B6BB-4D39-A42E-7329F8CC89A8}" name="Execution Notes" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7CB39CE2-A719-4A00-9CEA-CE8728D2B648}" name="Status" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F404EC94-DEBB-4D9B-BE02-1C61B82DDDA1}" name="Short description" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{D8A5581A-7867-44C0-914B-5E8C01A6CC33}" name="Detailed description" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F7B9393A-B6BB-4D39-A42E-7329F8CC89A8}" name="Execution Notes" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7CB39CE2-A719-4A00-9CEA-CE8728D2B648}" name="Status" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C914EFC-1ECC-4377-A958-9763C6301B07}" name="Table16" displayName="Table16" ref="A3:E12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C914EFC-1ECC-4377-A958-9763C6301B07}" name="Table16" displayName="Table16" ref="A3:E12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A3:E12" xr:uid="{1B2489D6-798F-4D2A-9A16-B1B12477AEC3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4517EDFB-EB88-4BED-82BF-9A6FA250B827}" name="Step#" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{4517EDFB-EB88-4BED-82BF-9A6FA250B827}" name="Step#" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(A3), A3 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F028098B-1AF3-4AE7-800B-BC51C5DED4A8}" name="Short description" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2DBE92AB-DD7D-418B-9F2B-9DDC0518A46B}" name="Detailed description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7E363B9B-D563-4ABA-AB7F-AEC77DB073D8}" name="Execution Notes" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{26BACE64-F058-4763-8AB5-1D433E6B2377}" name="Status" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F028098B-1AF3-4AE7-800B-BC51C5DED4A8}" name="Short description" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2DBE92AB-DD7D-418B-9F2B-9DDC0518A46B}" name="Detailed description" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{7E363B9B-D563-4ABA-AB7F-AEC77DB073D8}" name="Execution Notes" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{26BACE64-F058-4763-8AB5-1D433E6B2377}" name="Status" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49E15635-0F0B-49CE-B437-911F9971CB6A}" name="Table162" displayName="Table162" ref="A3:E14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A3:E14" xr:uid="{1B2489D6-798F-4D2A-9A16-B1B12477AEC3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B2770727-90B4-42C1-AFC8-95B7688A85A8}" name="Step#" dataDxfId="14">
+      <calculatedColumnFormula>IF(ISNUMBER(A3), A3 +1, 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{327DAA7C-60E1-49D9-9F81-1145398FE40A}" name="Short description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E66E0E67-27A8-4F29-989C-8B4CAF1751CE}" name="Detailed description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C8C1E422-0D46-4FD2-82EF-9ABB9FD9D9DB}" name="Execution Notes" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B85C8DE4-A482-490C-8612-D4D244730975}" name="Status" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1834,7 +2237,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1886,10 +2289,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$C3="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$C3="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1909,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25923D-4C3C-47EA-9898-6A9B6EFAE00B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2074,10 +2477,10 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E4="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$E4="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2097,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D413D-4138-4283-AA6C-35A85A194EB1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2294,10 +2697,10 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E4="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E4="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2311,4 +2714,256 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177141F9-2E70-4204-A84B-1CBF1F821978}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A12" si="0">IF(ISNUMBER(A3), A3 +1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="208" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="156" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f>IF(ISNUMBER(A12), A12 +1, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <f>IF(ISNUMBER(A13), A13 +1, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$E4="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$E4="Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{515CB9F0-47F3-4CE7-9F73-766B4A9E46BF}">
+      <formula1>"Not Started, In Progress, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>